--- a/aiurt-module-system/src/main/resources/templates/floodInformationError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/floodInformationError.xlsx
@@ -34,7 +34,7 @@
 8.周边是否存在排水不畅：必填且只能选择：”是“、”否“；
 9.周边是否存在工地：必填且只能选择：”是“、”否“；
 10.防汛物资配备所在位置：必填，手动输入内容；
-11.防汛出入口：必填，手动输入；
+11.防汛出入口：必填，手动输入，多个出入口用中因为逗号区分都可；例如：A出口,B出口；
 12.防汛等级：必填，手动输入；
 13工号：必填字段且系统中已存在。</t>
   </si>
